--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H2">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I2">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J2">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.276239</v>
+        <v>0.2836836666666667</v>
       </c>
       <c r="N2">
-        <v>0.552478</v>
+        <v>0.851051</v>
       </c>
       <c r="O2">
-        <v>0.157434405655516</v>
+        <v>0.5591840475862733</v>
       </c>
       <c r="P2">
-        <v>0.1456594907066863</v>
+        <v>0.6555027350772307</v>
       </c>
       <c r="Q2">
-        <v>12.8940540730325</v>
+        <v>16.60224234153717</v>
       </c>
       <c r="R2">
-        <v>51.57621629213</v>
+        <v>99.61345404922299</v>
       </c>
       <c r="S2">
-        <v>0.07712600893766222</v>
+        <v>0.5182006374263153</v>
       </c>
       <c r="T2">
-        <v>0.05738261856880948</v>
+        <v>0.5972680136287781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H3">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I3">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J3">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.2836836666666667</v>
+        <v>0.2236335</v>
       </c>
       <c r="N3">
-        <v>0.851051</v>
+        <v>0.447267</v>
       </c>
       <c r="O3">
-        <v>0.1616772774874083</v>
+        <v>0.4408159524137267</v>
       </c>
       <c r="P3">
-        <v>0.2243775412331641</v>
+        <v>0.3444972649227693</v>
       </c>
       <c r="Q3">
-        <v>13.24155002601417</v>
+        <v>13.08787920824775</v>
       </c>
       <c r="R3">
-        <v>79.44930015608499</v>
+        <v>52.351516832991</v>
       </c>
       <c r="S3">
-        <v>0.07920456203071298</v>
+        <v>0.4085079116875882</v>
       </c>
       <c r="T3">
-        <v>0.08839362819081278</v>
+        <v>0.3138922022907003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>46.6771675</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H4">
-        <v>93.35433499999999</v>
+        <v>0.117076</v>
       </c>
       <c r="I4">
-        <v>0.4898929723558808</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J4">
-        <v>0.3939504270570364</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.1947065</v>
+        <v>0.2836836666666667</v>
       </c>
       <c r="N4">
-        <v>2.389413</v>
+        <v>0.851051</v>
       </c>
       <c r="O4">
-        <v>0.6808883168570756</v>
+        <v>0.5591840475862733</v>
       </c>
       <c r="P4">
-        <v>0.6299629680601495</v>
+        <v>0.6555027350772307</v>
       </c>
       <c r="Q4">
-        <v>55.76551541383874</v>
+        <v>0.01107084965288889</v>
       </c>
       <c r="R4">
-        <v>223.062061655355</v>
+        <v>0.09963764687600001</v>
       </c>
       <c r="S4">
-        <v>0.3335624013875055</v>
+        <v>0.0003455509941946043</v>
       </c>
       <c r="T4">
-        <v>0.2481741802974141</v>
+        <v>0.0005974130703556138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H5">
         <v>0.117076</v>
       </c>
       <c r="I5">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J5">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.276239</v>
+        <v>0.2236335</v>
       </c>
       <c r="N5">
-        <v>0.552478</v>
+        <v>0.447267</v>
       </c>
       <c r="O5">
-        <v>0.157434405655516</v>
+        <v>0.4408159524137267</v>
       </c>
       <c r="P5">
-        <v>0.1456594907066863</v>
+        <v>0.3444972649227693</v>
       </c>
       <c r="Q5">
-        <v>0.01078031905466667</v>
+        <v>0.008727371882</v>
       </c>
       <c r="R5">
-        <v>0.064681914328</v>
+        <v>0.05236423129200001</v>
       </c>
       <c r="S5">
-        <v>6.448266612283006E-05</v>
+        <v>0.0002724047498688764</v>
       </c>
       <c r="T5">
-        <v>7.196374385358686E-05</v>
+        <v>0.0003139684363672028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.03902533333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H6">
-        <v>0.117076</v>
+        <v>1.272007</v>
       </c>
       <c r="I6">
-        <v>0.0004095843335790609</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J6">
-        <v>0.0004940546167259356</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,27 +815,27 @@
         <v>0.851051</v>
       </c>
       <c r="O6">
-        <v>0.1616772774874083</v>
+        <v>0.5591840475862733</v>
       </c>
       <c r="P6">
-        <v>0.2243775412331641</v>
+        <v>0.6555027350772307</v>
       </c>
       <c r="Q6">
-        <v>0.01107084965288889</v>
+        <v>0.1202825365952222</v>
       </c>
       <c r="R6">
-        <v>0.09963764687599999</v>
+        <v>1.082542829357</v>
       </c>
       <c r="S6">
-        <v>6.622047995455704E-05</v>
+        <v>0.003754341483075063</v>
       </c>
       <c r="T6">
-        <v>0.0001108547601358587</v>
+        <v>0.006490771869416731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.03902533333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H7">
-        <v>0.117076</v>
+        <v>1.272007</v>
       </c>
       <c r="I7">
-        <v>0.0004095843335790609</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J7">
-        <v>0.0004940546167259356</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>1.1947065</v>
+        <v>0.2236335</v>
       </c>
       <c r="N7">
-        <v>2.389413</v>
+        <v>0.447267</v>
       </c>
       <c r="O7">
-        <v>0.6808883168570756</v>
+        <v>0.4408159524137267</v>
       </c>
       <c r="P7">
-        <v>0.6299629680601495</v>
+        <v>0.3444972649227693</v>
       </c>
       <c r="Q7">
-        <v>0.04662381939799999</v>
+        <v>0.09482112581150001</v>
       </c>
       <c r="R7">
-        <v>0.2797429163879999</v>
+        <v>0.5689267548690001</v>
       </c>
       <c r="S7">
-        <v>0.0002788811875016738</v>
+        <v>0.002959622370652054</v>
       </c>
       <c r="T7">
-        <v>0.00031123611273649</v>
+        <v>0.003411203396410337</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.214287333333333</v>
+        <v>2.4732215</v>
       </c>
       <c r="H8">
-        <v>12.642862</v>
+        <v>4.946443</v>
       </c>
       <c r="I8">
-        <v>0.04423039911512208</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J8">
-        <v>0.0533522185565692</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.276239</v>
+        <v>0.2836836666666667</v>
       </c>
       <c r="N8">
-        <v>0.552478</v>
+        <v>0.851051</v>
       </c>
       <c r="O8">
-        <v>0.157434405655516</v>
+        <v>0.5591840475862733</v>
       </c>
       <c r="P8">
-        <v>0.1456594907066863</v>
+        <v>0.6555027350772307</v>
       </c>
       <c r="Q8">
-        <v>1.164150518672667</v>
+        <v>0.7016125435988334</v>
       </c>
       <c r="R8">
-        <v>6.984903112036</v>
+        <v>4.209675261593</v>
       </c>
       <c r="S8">
-        <v>0.006963386596595506</v>
+        <v>0.02189921456631087</v>
       </c>
       <c r="T8">
-        <v>0.007771256983021686</v>
+        <v>0.02524061037248482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.214287333333333</v>
+        <v>2.4732215</v>
       </c>
       <c r="H9">
-        <v>12.642862</v>
+        <v>4.946443</v>
       </c>
       <c r="I9">
-        <v>0.04423039911512208</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J9">
-        <v>0.0533522185565692</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.2836836666666667</v>
+        <v>0.2236335</v>
       </c>
       <c r="N9">
-        <v>0.851051</v>
+        <v>0.447267</v>
       </c>
       <c r="O9">
-        <v>0.1616772774874083</v>
+        <v>0.4408159524137267</v>
       </c>
       <c r="P9">
-        <v>0.2243775412331641</v>
+        <v>0.3444972649227693</v>
       </c>
       <c r="Q9">
-        <v>1.195524483106889</v>
+        <v>0.5530951803202501</v>
       </c>
       <c r="R9">
-        <v>10.759720347962</v>
+        <v>2.212380721281</v>
       </c>
       <c r="S9">
-        <v>0.007151050511114412</v>
+        <v>0.0172635882011128</v>
       </c>
       <c r="T9">
-        <v>0.01197103961905739</v>
+        <v>0.01326511816503379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.214287333333333</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H10">
-        <v>12.642862</v>
+        <v>1.655302</v>
       </c>
       <c r="I10">
-        <v>0.04423039911512208</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J10">
-        <v>0.0533522185565692</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.1947065</v>
+        <v>0.2836836666666667</v>
       </c>
       <c r="N10">
-        <v>2.389413</v>
+        <v>0.851051</v>
       </c>
       <c r="O10">
-        <v>0.6808883168570756</v>
+        <v>0.5591840475862733</v>
       </c>
       <c r="P10">
-        <v>0.6299629680601495</v>
+        <v>0.6555027350772307</v>
       </c>
       <c r="Q10">
-        <v>5.034836470000999</v>
+        <v>0.1565273802668889</v>
       </c>
       <c r="R10">
-        <v>30.20901882000599</v>
+        <v>1.408746422402</v>
       </c>
       <c r="S10">
-        <v>0.03011596200741216</v>
+        <v>0.004885640539413004</v>
       </c>
       <c r="T10">
-        <v>0.03360992195449012</v>
+        <v>0.008446641926490384</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.1940915</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H11">
-        <v>4.388183</v>
+        <v>1.655302</v>
       </c>
       <c r="I11">
-        <v>0.02302774705761169</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J11">
-        <v>0.01851790350019019</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.276239</v>
+        <v>0.2236335</v>
       </c>
       <c r="N11">
-        <v>0.552478</v>
+        <v>0.447267</v>
       </c>
       <c r="O11">
-        <v>0.157434405655516</v>
+        <v>0.4408159524137267</v>
       </c>
       <c r="P11">
-        <v>0.1456594907066863</v>
+        <v>0.3444972649227693</v>
       </c>
       <c r="Q11">
-        <v>0.6060936418685</v>
+        <v>0.123393659939</v>
       </c>
       <c r="R11">
-        <v>2.424374567474</v>
+        <v>0.7403619596340001</v>
       </c>
       <c r="S11">
-        <v>0.003625359671600653</v>
+        <v>0.003851448010415891</v>
       </c>
       <c r="T11">
-        <v>0.002697308392793266</v>
+        <v>0.004439104348077347</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.1940915</v>
+        <v>1.140508</v>
       </c>
       <c r="H12">
-        <v>4.388183</v>
+        <v>3.421524</v>
       </c>
       <c r="I12">
-        <v>0.02302774705761169</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J12">
-        <v>0.01851790350019019</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,27 +1187,27 @@
         <v>0.851051</v>
       </c>
       <c r="O12">
-        <v>0.1616772774874083</v>
+        <v>0.5591840475862733</v>
       </c>
       <c r="P12">
-        <v>0.2243775412331641</v>
+        <v>0.6555027350772307</v>
       </c>
       <c r="Q12">
-        <v>0.6224279217221667</v>
+        <v>0.3235434913026667</v>
       </c>
       <c r="R12">
-        <v>3.734567530333</v>
+        <v>2.911891421724</v>
       </c>
       <c r="S12">
-        <v>0.003723063450943335</v>
+        <v>0.01009866257696453</v>
       </c>
       <c r="T12">
-        <v>0.004155001656165678</v>
+        <v>0.01745928420970498</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,424 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.1940915</v>
+        <v>1.140508</v>
       </c>
       <c r="H13">
-        <v>4.388183</v>
+        <v>3.421524</v>
       </c>
       <c r="I13">
-        <v>0.02302774705761169</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J13">
-        <v>0.01851790350019019</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>1.1947065</v>
+        <v>0.2236335</v>
       </c>
       <c r="N13">
-        <v>2.389413</v>
+        <v>0.447267</v>
       </c>
       <c r="O13">
-        <v>0.6808883168570756</v>
+        <v>0.4408159524137267</v>
       </c>
       <c r="P13">
-        <v>0.6299629680601495</v>
+        <v>0.3444972649227693</v>
       </c>
       <c r="Q13">
-        <v>2.62129537664475</v>
+        <v>0.255055795818</v>
       </c>
       <c r="R13">
-        <v>10.485181506579</v>
+        <v>1.530334774908</v>
       </c>
       <c r="S13">
-        <v>0.0156793239350677</v>
+        <v>0.007960977394088947</v>
       </c>
       <c r="T13">
-        <v>0.01166559345123124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>36.230025</v>
-      </c>
-      <c r="H14">
-        <v>108.690075</v>
-      </c>
-      <c r="I14">
-        <v>0.3802466084896404</v>
-      </c>
-      <c r="J14">
-        <v>0.4586664503915251</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.276239</v>
-      </c>
-      <c r="N14">
-        <v>0.552478</v>
-      </c>
-      <c r="O14">
-        <v>0.157434405655516</v>
-      </c>
-      <c r="P14">
-        <v>0.1456594907066863</v>
-      </c>
-      <c r="Q14">
-        <v>10.008145875975</v>
-      </c>
-      <c r="R14">
-        <v>60.04887525585</v>
-      </c>
-      <c r="S14">
-        <v>0.05986389881009223</v>
-      </c>
-      <c r="T14">
-        <v>0.06680912156827312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>36.230025</v>
-      </c>
-      <c r="H15">
-        <v>108.690075</v>
-      </c>
-      <c r="I15">
-        <v>0.3802466084896404</v>
-      </c>
-      <c r="J15">
-        <v>0.4586664503915251</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.2836836666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.851051</v>
-      </c>
-      <c r="O15">
-        <v>0.1616772774874083</v>
-      </c>
-      <c r="P15">
-        <v>0.2243775412331641</v>
-      </c>
-      <c r="Q15">
-        <v>10.277866335425</v>
-      </c>
-      <c r="R15">
-        <v>92.500797018825</v>
-      </c>
-      <c r="S15">
-        <v>0.06147723643442551</v>
-      </c>
-      <c r="T15">
-        <v>0.1029144503849934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>36.230025</v>
-      </c>
-      <c r="H16">
-        <v>108.690075</v>
-      </c>
-      <c r="I16">
-        <v>0.3802466084896404</v>
-      </c>
-      <c r="J16">
-        <v>0.4586664503915251</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.1947065</v>
-      </c>
-      <c r="N16">
-        <v>2.389413</v>
-      </c>
-      <c r="O16">
-        <v>0.6808883168570756</v>
-      </c>
-      <c r="P16">
-        <v>0.6299629680601495</v>
-      </c>
-      <c r="Q16">
-        <v>43.28424636266249</v>
-      </c>
-      <c r="R16">
-        <v>259.705478175975</v>
-      </c>
-      <c r="S16">
-        <v>0.2589054732451227</v>
-      </c>
-      <c r="T16">
-        <v>0.2889428784382585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.925740333333334</v>
-      </c>
-      <c r="H17">
-        <v>17.777221</v>
-      </c>
-      <c r="I17">
-        <v>0.06219268864816604</v>
-      </c>
-      <c r="J17">
-        <v>0.07501894587795324</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.276239</v>
-      </c>
-      <c r="N17">
-        <v>0.552478</v>
-      </c>
-      <c r="O17">
-        <v>0.157434405655516</v>
-      </c>
-      <c r="P17">
-        <v>0.1456594907066863</v>
-      </c>
-      <c r="Q17">
-        <v>1.636920583939667</v>
-      </c>
-      <c r="R17">
-        <v>9.821523503638002</v>
-      </c>
-      <c r="S17">
-        <v>0.009791268973442577</v>
-      </c>
-      <c r="T17">
-        <v>0.01092722144993513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5.925740333333334</v>
-      </c>
-      <c r="H18">
-        <v>17.777221</v>
-      </c>
-      <c r="I18">
-        <v>0.06219268864816604</v>
-      </c>
-      <c r="J18">
-        <v>0.07501894587795324</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.2836836666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.851051</v>
-      </c>
-      <c r="O18">
-        <v>0.1616772774874083</v>
-      </c>
-      <c r="P18">
-        <v>0.2243775412331641</v>
-      </c>
-      <c r="Q18">
-        <v>1.681035745474556</v>
-      </c>
-      <c r="R18">
-        <v>15.129321709271</v>
-      </c>
-      <c r="S18">
-        <v>0.01005514458025753</v>
-      </c>
-      <c r="T18">
-        <v>0.01683256662199896</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.925740333333334</v>
-      </c>
-      <c r="H19">
-        <v>17.777221</v>
-      </c>
-      <c r="I19">
-        <v>0.06219268864816604</v>
-      </c>
-      <c r="J19">
-        <v>0.07501894587795324</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.1947065</v>
-      </c>
-      <c r="N19">
-        <v>2.389413</v>
-      </c>
-      <c r="O19">
-        <v>0.6808883168570756</v>
-      </c>
-      <c r="P19">
-        <v>0.6299629680601495</v>
-      </c>
-      <c r="Q19">
-        <v>7.0795204935455</v>
-      </c>
-      <c r="R19">
-        <v>42.477122961273</v>
-      </c>
-      <c r="S19">
-        <v>0.04234627509446593</v>
-      </c>
-      <c r="T19">
-        <v>0.04725915780601914</v>
+        <v>0.009175668286180405</v>
       </c>
     </row>
   </sheetData>
